--- a/translation_example.xlsx
+++ b/translation_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chunlee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chunlee\Documents\FlutterProject\dart_excel_json\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,12 +29,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>kh</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>es</t>
-  </si>
-  <si>
     <t>titulo</t>
   </si>
   <si>
@@ -74,12 +65,6 @@
     <t>asdfaf</t>
   </si>
   <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>vn</t>
-  </si>
-  <si>
     <t>add</t>
   </si>
   <si>
@@ -96,6 +81,21 @@
   </si>
   <si>
     <t>dgh</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>km-KH</t>
+  </si>
+  <si>
+    <t>th-TH</t>
+  </si>
+  <si>
+    <t>es-ES</t>
+  </si>
+  <si>
+    <t>vi-VN</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,79 +442,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
